--- a/www.eia.gov/electricity/monthly/xls/table_2_09_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_09_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>Table 2.9.B.  Consumption of Petroleum Liquids for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Thousand Barrels)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Thousand Barrels)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1353,34 +1353,34 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>947</v>
+        <v>1045</v>
       </c>
       <c r="C6" s="13">
-        <v>3375</v>
+        <v>3412</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.72</v>
+        <v>-0.69</v>
       </c>
       <c r="E6" s="13">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F6" s="13">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G6" s="13">
-        <v>786</v>
+        <v>873</v>
       </c>
       <c r="H6" s="13">
-        <v>2895</v>
+        <v>2924</v>
       </c>
       <c r="I6" s="13">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J6" s="13">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K6" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="13">
         <v>47</v>
@@ -1391,25 +1391,25 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C7" s="16">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D7" s="17">
-        <v>-0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="E7" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="16">
         <v>12</v>
       </c>
       <c r="G7" s="16">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H7" s="16">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>15</v>
@@ -1429,10 +1429,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="16">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C8" s="16">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="D8" s="17">
         <v>-0.76</v>
@@ -1444,10 +1444,10 @@
         <v>0.16</v>
       </c>
       <c r="G8" s="16">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H8" s="16">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>15</v>
@@ -1456,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="K8" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" s="16">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1467,37 +1467,37 @@
         <v>17</v>
       </c>
       <c r="B9" s="16">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="C9" s="16">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.65</v>
+        <v>-0.6</v>
       </c>
       <c r="E9" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="16">
         <v>94</v>
       </c>
       <c r="G9" s="16">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="H9" s="16">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="I9" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" s="16">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="16">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1505,31 +1505,31 @@
         <v>18</v>
       </c>
       <c r="B10" s="16">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="16">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="E10" s="16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="16">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" s="16">
         <v>7</v>
       </c>
       <c r="J10" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>15</v>
@@ -1543,31 +1543,31 @@
         <v>19</v>
       </c>
       <c r="B11" s="16">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C11" s="16">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D11" s="17">
-        <v>-0.79</v>
+        <v>-0.72</v>
       </c>
       <c r="E11" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H11" s="16">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
@@ -1619,37 +1619,37 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>1638</v>
+        <v>1704</v>
       </c>
       <c r="C13" s="13">
-        <v>4543</v>
+        <v>4606</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="E13" s="13">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F13" s="13">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="G13" s="13">
-        <v>989</v>
+        <v>1034</v>
       </c>
       <c r="H13" s="13">
-        <v>2990</v>
+        <v>3043</v>
       </c>
       <c r="I13" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J13" s="13">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="13">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L13" s="13">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1657,13 +1657,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C14" s="16">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D14" s="17">
-        <v>-0.75</v>
+        <v>-0.74</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>15</v>
@@ -1672,10 +1672,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="16">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H14" s="16">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>15</v>
@@ -1695,37 +1695,37 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>1043</v>
+        <v>1069</v>
       </c>
       <c r="C15" s="16">
-        <v>3061</v>
+        <v>3073</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="E15" s="16">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F15" s="16">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G15" s="16">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="H15" s="16">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15" s="16">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="16">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L15" s="16">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1733,13 +1733,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="C16" s="16">
-        <v>994</v>
+        <v>1041</v>
       </c>
       <c r="D16" s="17">
-        <v>-0.53</v>
+        <v>-0.51</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>15</v>
@@ -1748,22 +1748,22 @@
         <v>1</v>
       </c>
       <c r="G16" s="16">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="H16" s="16">
-        <v>962</v>
+        <v>1008</v>
       </c>
       <c r="I16" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" s="16">
         <v>5</v>
       </c>
       <c r="K16" s="16">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L16" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1771,37 +1771,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>871</v>
+        <v>959</v>
       </c>
       <c r="C17" s="13">
-        <v>923</v>
+        <v>1001</v>
       </c>
       <c r="D17" s="14">
-        <v>-5.7000000000000002E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F17" s="13">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="G17" s="13">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="H17" s="13">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="I17" s="13">
         <v>5</v>
       </c>
       <c r="J17" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L17" s="13">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1809,31 +1809,31 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C18" s="16">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D18" s="17">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E18" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="16">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H18" s="16">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I18" s="16">
         <v>1</v>
       </c>
       <c r="J18" s="16">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K18" s="16">
         <v>0</v>
@@ -1847,19 +1847,19 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C19" s="16">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E19" s="16">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F19" s="16">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
         <v>15</v>
       </c>
       <c r="J19" s="16">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="K19" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" s="16">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1885,19 +1885,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C20" s="16">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D20" s="17">
-        <v>8.6999999999999994E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="16">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F20" s="16">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="16">
         <v>4</v>
@@ -1923,31 +1923,31 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="C21" s="16">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="D21" s="17">
-        <v>-5.0999999999999997E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E21" s="16">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F21" s="16">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G21" s="16">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H21" s="16">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="16">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="K21" s="16">
         <v>3</v>
@@ -1961,19 +1961,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
+        <v>65</v>
+      </c>
+      <c r="C22" s="16">
         <v>63</v>
       </c>
-      <c r="C22" s="16">
-        <v>58</v>
-      </c>
       <c r="D22" s="17">
-        <v>7.3999999999999996E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E22" s="16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F22" s="16">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G22" s="16">
         <v>4</v>
@@ -1999,25 +1999,25 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="C23" s="13">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.16</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E23" s="13">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="F23" s="13">
-        <v>462</v>
-      </c>
-      <c r="G23" s="13">
-        <v>11</v>
+        <v>506</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="H23" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" s="13">
         <v>3</v>
@@ -2037,19 +2037,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C24" s="16">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D24" s="17">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E24" s="16">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F24" s="16">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G24" s="16">
         <v>2</v>
@@ -2061,13 +2061,13 @@
         <v>15</v>
       </c>
       <c r="J24" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L24" s="16">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2075,19 +2075,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C25" s="16">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D25" s="17">
-        <v>-2.3E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E25" s="16">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F25" s="16">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2113,19 +2113,19 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" s="17">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="E26" s="16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" s="16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>15</v>
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" s="16">
         <v>1</v>
@@ -2151,19 +2151,19 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C27" s="16">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.33</v>
+        <v>-0.3</v>
       </c>
       <c r="E27" s="16">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F27" s="16">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>15</v>
@@ -2175,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
@@ -2189,19 +2189,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17">
-        <v>0.18</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E28" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2227,19 +2227,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" s="16">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D29" s="17">
-        <v>-1.7999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E29" s="16">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F29" s="16">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="16">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K29" s="16">
         <v>1</v>
@@ -2268,16 +2268,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="E30" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" s="16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>15</v>
@@ -2303,37 +2303,37 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>3552</v>
+        <v>3796</v>
       </c>
       <c r="C31" s="13">
-        <v>4864</v>
+        <v>5280</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.27</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E31" s="13">
-        <v>2679</v>
+        <v>2891</v>
       </c>
       <c r="F31" s="13">
-        <v>3591</v>
+        <v>3915</v>
       </c>
       <c r="G31" s="13">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="H31" s="13">
-        <v>1137</v>
+        <v>1221</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" s="13">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L31" s="13">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,10 +2344,10 @@
         <v>93</v>
       </c>
       <c r="C32" s="16">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D32" s="17">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>15</v>
@@ -2359,7 +2359,7 @@
         <v>88</v>
       </c>
       <c r="H32" s="16">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="16">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>15</v>
@@ -2403,7 +2403,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="16">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="K33" s="16">
         <v>0</v>
@@ -2417,25 +2417,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>1222</v>
+        <v>1358</v>
       </c>
       <c r="C34" s="16">
-        <v>860</v>
+        <v>1068</v>
       </c>
       <c r="D34" s="17">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="E34" s="16">
-        <v>1186</v>
+        <v>1322</v>
       </c>
       <c r="F34" s="16">
-        <v>835</v>
+        <v>1036</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="16">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2455,25 +2455,25 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C35" s="16">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D35" s="17">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E35" s="16">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F35" s="16">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G35" s="16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H35" s="16">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I35" s="16">
         <v>3</v>
@@ -2482,10 +2482,10 @@
         <v>4</v>
       </c>
       <c r="K35" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L35" s="16">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2493,31 +2493,31 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C36" s="16">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D36" s="17">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E36" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F36" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" s="16">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H36" s="16">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="16">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36" s="16">
         <v>2</v>
@@ -2531,25 +2531,25 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="C37" s="16">
-        <v>722</v>
+        <v>771</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="E37" s="16">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F37" s="16">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="G37" s="16">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H37" s="16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>15</v>
@@ -2558,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L37" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2569,19 +2569,19 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C38" s="16">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="D38" s="17">
         <v>-0.46</v>
       </c>
       <c r="E38" s="16">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F38" s="16">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>15</v>
@@ -2593,13 +2593,13 @@
         <v>15</v>
       </c>
       <c r="J38" s="16">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="K38" s="16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L38" s="16">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,25 +2607,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>929</v>
+        <v>954</v>
       </c>
       <c r="C39" s="16">
-        <v>1766</v>
+        <v>1844</v>
       </c>
       <c r="D39" s="17">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="E39" s="16">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="F39" s="16">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="G39" s="16">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H39" s="16">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>15</v>
@@ -2645,25 +2645,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C40" s="16">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D40" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.17</v>
       </c>
       <c r="E40" s="16">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F40" s="16">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G40" s="16">
         <v>9</v>
       </c>
       <c r="H40" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2683,37 +2683,37 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="C41" s="13">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E41" s="13">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="F41" s="13">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="G41" s="13">
         <v>12</v>
       </c>
       <c r="H41" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="13">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K41" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L41" s="13">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2721,25 +2721,25 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C42" s="16">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D42" s="17">
-        <v>-0.39</v>
+        <v>-0.41</v>
       </c>
       <c r="E42" s="16">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F42" s="16">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G42" s="16">
         <v>12</v>
       </c>
       <c r="H42" s="16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" s="16">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2759,19 +2759,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C43" s="16">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D43" s="17">
-        <v>-7.2999999999999995E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E43" s="16">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F43" s="16">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
+        <v>31</v>
+      </c>
+      <c r="C44" s="16">
         <v>30</v>
       </c>
-      <c r="C44" s="16">
+      <c r="D44" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E44" s="16">
+        <v>29</v>
+      </c>
+      <c r="F44" s="16">
         <v>28</v>
-      </c>
-      <c r="D44" s="17">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E44" s="16">
-        <v>28</v>
-      </c>
-      <c r="F44" s="16">
-        <v>27</v>
       </c>
       <c r="G44" s="16">
         <v>0</v>
@@ -2835,31 +2835,31 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C45" s="16">
+        <v>236</v>
+      </c>
+      <c r="D45" s="17">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="E45" s="16">
         <v>222</v>
       </c>
-      <c r="D45" s="17">
-        <v>-0.11</v>
-      </c>
-      <c r="E45" s="16">
-        <v>196</v>
-      </c>
       <c r="F45" s="16">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="16">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="16">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K45" s="16">
         <v>1</v>
@@ -2873,25 +2873,25 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C46" s="13">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.41</v>
+        <v>-0.38</v>
       </c>
       <c r="E46" s="13">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F46" s="13">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G46" s="13">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H46" s="13">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>15</v>
@@ -2900,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="K46" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L46" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2911,25 +2911,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C47" s="16">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D47" s="17">
-        <v>-0.38</v>
+        <v>-0.3</v>
       </c>
       <c r="E47" s="16">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F47" s="16">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G47" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H47" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2949,25 +2949,25 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C48" s="16">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D48" s="17">
         <v>-0.75</v>
       </c>
       <c r="E48" s="16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F48" s="16">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G48" s="16">
         <v>3</v>
       </c>
       <c r="H48" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -2987,19 +2987,19 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C49" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="E49" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="16">
         <v>0</v>
@@ -3025,25 +3025,25 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C50" s="16">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.34</v>
+        <v>-0.31</v>
       </c>
       <c r="E50" s="16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F50" s="16">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G50" s="16">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H50" s="16">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>15</v>
@@ -3063,25 +3063,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="C51" s="13">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D51" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="F51" s="13">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G51" s="13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H51" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>15</v>
@@ -3101,19 +3101,19 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C52" s="16">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D52" s="17">
-        <v>4.8000000000000001E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E52" s="16">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F52" s="16">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3138,20 +3138,20 @@
       <c r="A53" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>15</v>
+      <c r="B53" s="16">
+        <v>19</v>
       </c>
       <c r="C53" s="16">
-        <v>16</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D53" s="17">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="E53" s="16">
+        <v>19</v>
       </c>
       <c r="F53" s="16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -3215,13 +3215,13 @@
         <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="17">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>15</v>
@@ -3230,10 +3230,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H55" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3256,16 +3256,16 @@
         <v>21</v>
       </c>
       <c r="C56" s="16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.22</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E56" s="16">
         <v>16</v>
       </c>
       <c r="F56" s="16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G56" s="16">
         <v>5</v>
@@ -3291,19 +3291,19 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C57" s="16">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D57" s="17">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="E57" s="16">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F57" s="16">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3329,19 +3329,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C58" s="16">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="E58" s="16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F58" s="16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>15</v>
@@ -3367,19 +3367,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C59" s="16">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D59" s="17">
-        <v>0.08</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F59" s="16">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="L59" s="16">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3405,25 +3405,25 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C60" s="13">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D60" s="14">
-        <v>-7.0999999999999994E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="E60" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F60" s="13">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G60" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60" s="13">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>15</v>
@@ -3432,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="K60" s="13">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L60" s="13">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3443,25 +3443,25 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C61" s="16">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D61" s="17">
-        <v>-0.09</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E61" s="16">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F61" s="16">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G61" s="16">
         <v>15</v>
       </c>
       <c r="H61" s="16">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>15</v>
@@ -3484,16 +3484,16 @@
         <v>5</v>
       </c>
       <c r="C62" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.47</v>
+        <v>-0.54</v>
       </c>
       <c r="E62" s="16">
         <v>5</v>
       </c>
       <c r="F62" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="16">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K62" s="16">
         <v>0</v>
@@ -3519,37 +3519,37 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C63" s="16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63" s="17">
-        <v>0.2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H63" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J63" s="16">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="K63" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3557,37 +3557,37 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>9108</v>
+        <v>10006</v>
       </c>
       <c r="C64" s="13">
-        <v>9944</v>
+        <v>10903</v>
       </c>
       <c r="D64" s="14">
-        <v>-8.4000000000000005E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>7880</v>
+        <v>8654</v>
       </c>
       <c r="F64" s="13">
-        <v>8503</v>
+        <v>9328</v>
       </c>
       <c r="G64" s="13">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="H64" s="13">
-        <v>1198</v>
+        <v>1308</v>
       </c>
       <c r="I64" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J64" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K64" s="13">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="L64" s="13">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3595,19 +3595,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>1089</v>
+        <v>1240</v>
       </c>
       <c r="C65" s="16">
-        <v>1156</v>
+        <v>1252</v>
       </c>
       <c r="D65" s="17">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E65" s="16">
-        <v>1023</v>
+        <v>1166</v>
       </c>
       <c r="F65" s="16">
-        <v>1082</v>
+        <v>1172</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3616,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="16">
+        <v>7</v>
+      </c>
+      <c r="J65" s="16">
         <v>6</v>
       </c>
-      <c r="J65" s="16">
-        <v>5</v>
-      </c>
       <c r="K65" s="16">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L65" s="16">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3633,37 +3633,37 @@
         <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>8019</v>
+        <v>8766</v>
       </c>
       <c r="C66" s="16">
-        <v>8787</v>
+        <v>9650</v>
       </c>
       <c r="D66" s="17">
-        <v>-8.6999999999999994E-2</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E66" s="16">
-        <v>6858</v>
+        <v>7487</v>
       </c>
       <c r="F66" s="16">
-        <v>7421</v>
+        <v>8156</v>
       </c>
       <c r="G66" s="16">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="H66" s="16">
-        <v>1198</v>
+        <v>1308</v>
       </c>
       <c r="I66" s="16">
+        <v>10</v>
+      </c>
+      <c r="J66" s="16">
         <v>9</v>
       </c>
-      <c r="J66" s="16">
-        <v>7</v>
-      </c>
       <c r="K66" s="16">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L66" s="16">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3671,37 +3671,37 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>17755</v>
+        <v>19315</v>
       </c>
       <c r="C67" s="13">
-        <v>25625</v>
+        <v>27344</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.31</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E67" s="13">
-        <v>13118</v>
+        <v>14316</v>
       </c>
       <c r="F67" s="13">
-        <v>16037</v>
+        <v>17385</v>
       </c>
       <c r="G67" s="13">
-        <v>4057</v>
+        <v>4363</v>
       </c>
       <c r="H67" s="13">
-        <v>8795</v>
+        <v>9119</v>
       </c>
       <c r="I67" s="13">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J67" s="13">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K67" s="13">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="L67" s="13">
-        <v>559</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
